--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890BE7D3-5B45-4FFC-AD8E-9FC40DEFC562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393A491-B042-4625-A52D-A4AF28A9323F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -289,6 +289,51 @@
   </si>
   <si>
     <t>s/i</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Luis Jiménez</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Nélida Moscoso</t>
+  </si>
+  <si>
+    <t>Cristián Varela</t>
+  </si>
+  <si>
+    <t>Ximena Anza</t>
+  </si>
+  <si>
+    <t>Daniza Álvares</t>
+  </si>
+  <si>
+    <t>Sergio Campusano</t>
+  </si>
+  <si>
+    <t>Gabriela Calderón</t>
+  </si>
+  <si>
+    <t>Erick Chinga</t>
+  </si>
+  <si>
+    <t>Solange Bordones</t>
+  </si>
+  <si>
+    <t>Ernesto Alcayaga</t>
+  </si>
+  <si>
+    <t>José Fernández</t>
+  </si>
+  <si>
+    <t>Felicia González</t>
+  </si>
+  <si>
+    <t>Iquique</t>
   </si>
 </sst>
 </file>
@@ -332,13 +377,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,16 +680,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -647,7 +707,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -662,25 +722,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -688,25 +748,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -714,51 +774,51 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -766,25 +826,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -792,25 +852,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -818,25 +878,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -844,77 +904,77 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -922,25 +982,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -948,51 +1008,51 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1000,77 +1060,77 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
       <c r="C15">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1078,181 +1138,181 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="D24">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1260,155 +1320,155 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>5.5</v>
       </c>
       <c r="D25">
-        <v>999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>999</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>999</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>999</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>999</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>999</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1416,51 +1476,51 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>999</v>
-      </c>
-      <c r="E31" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>999</v>
-      </c>
-      <c r="E32" t="s">
-        <v>86</v>
+        <v>23</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1468,25 +1528,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>999</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1494,100 +1554,100 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>999</v>
-      </c>
-      <c r="E34" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>999</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
         <v>71</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>999</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
         <v>71</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>999</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
         <v>71</v>
@@ -1598,25 +1658,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>999</v>
-      </c>
-      <c r="E38" t="s">
-        <v>86</v>
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1624,33 +1684,33 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
         <v>28</v>
       </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39">
-        <v>999</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
+      <c r="E39" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
@@ -1661,14 +1721,14 @@
       <c r="D40">
         <v>999</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1676,7 +1736,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
@@ -1687,14 +1747,14 @@
       <c r="D41">
         <v>999</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1702,7 +1762,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -1713,22 +1773,22 @@
       <c r="D42">
         <v>999</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
@@ -1739,14 +1799,14 @@
       <c r="D43">
         <v>999</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1754,7 +1814,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
@@ -1765,22 +1825,22 @@
       <c r="D44">
         <v>999</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
@@ -1791,14 +1851,14 @@
       <c r="D45">
         <v>999</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1806,7 +1866,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
@@ -1817,14 +1877,14 @@
       <c r="D46">
         <v>999</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1832,7 +1892,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1843,22 +1903,22 @@
       <c r="D47">
         <v>999</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
@@ -1869,22 +1929,22 @@
       <c r="D48">
         <v>999</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
@@ -1895,22 +1955,22 @@
       <c r="D49">
         <v>999</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
@@ -1921,22 +1981,22 @@
       <c r="D50">
         <v>999</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
@@ -1947,22 +2007,22 @@
       <c r="D51">
         <v>999</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
@@ -1973,23 +2033,335 @@
       <c r="D52">
         <v>999</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>999</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54">
+        <v>999</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55">
+        <v>999</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56">
+        <v>999</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57">
+        <v>999</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58">
+        <v>999</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59">
+        <v>999</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60">
+        <v>999</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61">
+        <v>999</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62">
+        <v>999</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63">
+        <v>999</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64">
+        <v>999</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
-    <sortCondition ref="D2:D52"/>
-    <sortCondition ref="G2:G52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+    <sortCondition ref="D2:D66"/>
+    <sortCondition ref="G2:G66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E5FCF-6788-41AD-B69B-D4E2B6B2C04C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A438E83-6D96-49B7-8AA0-993B27CDD194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Rapa Nui</t>
   </si>
   <si>
-    <t>Valeria Pakarati</t>
-  </si>
-  <si>
     <t>Metropolitana</t>
   </si>
   <si>
@@ -667,6 +664,9 @@
   </si>
   <si>
     <t>Jackeline Rapu</t>
+  </si>
+  <si>
+    <t>José Parancan</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1079,16 +1079,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1099,16 +1099,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1159,16 +1159,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1179,16 +1179,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1259,16 +1259,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1279,16 +1279,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1319,16 +1319,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1359,16 +1359,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1399,16 +1399,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1419,16 +1419,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1439,16 +1439,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1479,16 +1479,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1499,16 +1499,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1519,16 +1519,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1539,16 +1539,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1579,16 +1579,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1619,16 +1619,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1679,16 +1679,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1699,16 +1699,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1719,16 +1719,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1739,16 +1739,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1779,13 +1779,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1799,13 +1799,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1819,13 +1819,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1885,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1985,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -2025,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -2125,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -2265,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
@@ -2385,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
@@ -2405,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
@@ -2545,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
@@ -2585,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
@@ -2605,10 +2605,10 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2705,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>20</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>20</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,19 +2999,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,16 +3019,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>5.5</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>5.5</v>
@@ -3048,7 +3048,7 @@
         <v>25</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>5.5</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>5.5</v>
@@ -3088,10 +3088,10 @@
         <v>137</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>5.5</v>
@@ -3108,10 +3108,10 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>5.5</v>
@@ -3128,10 +3128,10 @@
         <v>139</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>5.5</v>
@@ -3148,7 +3148,7 @@
         <v>140</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>5.5</v>
@@ -3168,10 +3168,10 @@
         <v>141</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,7 +3179,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>5.5</v>
@@ -3188,7 +3188,7 @@
         <v>142</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>5.5</v>
@@ -3208,10 +3208,10 @@
         <v>143</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,19 +3219,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>8</v>
@@ -3248,10 +3248,10 @@
         <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -3268,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -3288,10 +3288,10 @@
         <v>31</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,16 +3299,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -3328,10 +3328,10 @@
         <v>145</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117">
         <v>8</v>
@@ -3348,10 +3348,10 @@
         <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -3368,10 +3368,10 @@
         <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119">
         <v>8</v>
@@ -3388,10 +3388,10 @@
         <v>148</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>8</v>
@@ -3408,7 +3408,7 @@
         <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>8</v>
@@ -3428,10 +3428,10 @@
         <v>150</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122">
         <v>8</v>
@@ -3448,7 +3448,7 @@
         <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -3468,10 +3468,10 @@
         <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,19 +3479,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
         <v>27</v>
       </c>
-      <c r="C124">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>153</v>
-      </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,19 +3499,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125">
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,16 +3519,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126">
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3539,16 +3539,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127">
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -3568,7 +3568,7 @@
         <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C129">
         <v>9</v>
@@ -3588,10 +3588,10 @@
         <v>156</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -3608,7 +3608,7 @@
         <v>157</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -3628,10 +3628,10 @@
         <v>158</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C132">
         <v>9</v>
@@ -3648,10 +3648,10 @@
         <v>159</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -3668,10 +3668,10 @@
         <v>160</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C134">
         <v>9</v>
@@ -3688,7 +3688,7 @@
         <v>161</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C135">
         <v>9</v>
@@ -3708,10 +3708,10 @@
         <v>162</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C136">
         <v>9</v>
@@ -3728,10 +3728,10 @@
         <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C137">
         <v>9</v>
@@ -3748,10 +3748,10 @@
         <v>164</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C138">
         <v>9</v>
@@ -3768,7 +3768,7 @@
         <v>165</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -3779,7 +3779,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139">
         <v>9</v>
@@ -3788,10 +3788,10 @@
         <v>166</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C140">
         <v>9</v>
@@ -3808,7 +3808,7 @@
         <v>167</v>
       </c>
       <c r="E140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -3828,10 +3828,10 @@
         <v>168</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -3848,10 +3848,10 @@
         <v>169</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -3868,10 +3868,10 @@
         <v>170</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C144">
         <v>9</v>
@@ -3888,10 +3888,10 @@
         <v>171</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -3908,10 +3908,10 @@
         <v>172</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -3928,10 +3928,10 @@
         <v>173</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -3948,10 +3948,10 @@
         <v>174</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -3968,10 +3968,10 @@
         <v>175</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -3988,10 +3988,10 @@
         <v>176</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,19 +3999,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C150">
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,19 +4019,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C151">
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -4048,10 +4048,10 @@
         <v>178</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153">
         <v>9</v>
@@ -4068,10 +4068,10 @@
         <v>179</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C154">
         <v>9</v>
@@ -4088,10 +4088,10 @@
         <v>180</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -4108,10 +4108,10 @@
         <v>181</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C156">
         <v>9</v>
@@ -4128,10 +4128,10 @@
         <v>182</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C157">
         <v>9</v>
@@ -4148,10 +4148,10 @@
         <v>183</v>
       </c>
       <c r="E157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,16 +4159,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158">
-        <v>9</v>
+        <v>184</v>
+      </c>
+      <c r="C158" s="3">
+        <v>9.5</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4179,19 +4179,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C159" s="3">
         <v>9.5</v>
       </c>
       <c r="D159" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,19 +4199,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C160" s="3">
         <v>9.5</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,19 +4219,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C161" s="3">
         <v>9.5</v>
       </c>
       <c r="D161" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,19 +4239,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C162" s="3">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" s="3">
         <v>10</v>
@@ -4268,10 +4268,10 @@
         <v>189</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" s="3">
         <v>10</v>
@@ -4288,7 +4288,7 @@
         <v>190</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C165" s="3">
         <v>10</v>
@@ -4308,10 +4308,10 @@
         <v>191</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,16 +4319,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" s="3">
         <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4339,19 +4339,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" s="3">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,19 +4359,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C168" s="3">
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,19 +4379,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C169" s="3">
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,19 +4399,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C170" s="3">
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="3">
         <v>10</v>
@@ -4428,30 +4428,30 @@
         <v>194</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C172" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C173" s="3">
         <v>11</v>
@@ -4468,30 +4468,30 @@
         <v>197</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
-      </c>
-      <c r="C174" s="3">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C175">
         <v>12</v>
@@ -4508,7 +4508,7 @@
         <v>50</v>
       </c>
       <c r="E175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C176">
         <v>12</v>
@@ -4528,7 +4528,7 @@
         <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4539,19 +4539,19 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C177">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C178">
         <v>12</v>
@@ -4568,10 +4568,10 @@
         <v>72</v>
       </c>
       <c r="E178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,19 +4579,19 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C179">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C180">
         <v>12</v>
@@ -4608,7 +4608,7 @@
         <v>122</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C181">
         <v>12</v>
@@ -4628,47 +4628,47 @@
         <v>123</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C182">
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C183">
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4676,19 +4676,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C184">
         <v>12</v>
       </c>
       <c r="D184" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" t="s">
         <v>35</v>
-      </c>
-      <c r="E184" t="s">
-        <v>36</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -4696,28 +4696,28 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C185">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F185">
-    <sortCondition ref="C2:C185"/>
-    <sortCondition ref="E2:E185"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
+    <sortCondition ref="C2:C188"/>
+    <sortCondition ref="E2:E188"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A438E83-6D96-49B7-8AA0-993B27CDD194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D569713-CAD8-41D0-B2EB-1E4747ED79FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4715,9 +4715,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F188">
-    <sortCondition ref="C2:C188"/>
-    <sortCondition ref="E2:E188"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F185">
+    <sortCondition ref="C2:C185"/>
+    <sortCondition ref="E2:E185"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D569713-CAD8-41D0-B2EB-1E4747ED79FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC31FB1-F119-4884-8874-2BBC905C4826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$F$189</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Elisa Loncon</t>
   </si>
   <si>
-    <t>Camilo Pereira</t>
-  </si>
-  <si>
     <t>Bío-Bío</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>María Olmos Loncopan</t>
   </si>
   <si>
-    <t>Hugo Alcaman</t>
-  </si>
-  <si>
     <t>Natividad Llanquileo</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>Victorino Antilef</t>
   </si>
   <si>
-    <t>Augusto Manquelipe</t>
-  </si>
-  <si>
     <t>Eric Vargas</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>Mariel Campillay</t>
   </si>
   <si>
-    <t>Gabriel Calderón</t>
-  </si>
-  <si>
     <t>Eric Chinga</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>Mariela Gatica</t>
   </si>
   <si>
-    <t>Andrés Huirilef</t>
-  </si>
-  <si>
     <t>Josefina Fica</t>
   </si>
   <si>
@@ -555,9 +540,6 @@
     <t>Doralisa Toro</t>
   </si>
   <si>
-    <t>Manuek Santander</t>
-  </si>
-  <si>
     <t>Rosa Caniupil</t>
   </si>
   <si>
@@ -654,9 +636,6 @@
     <t>Pedro Fati</t>
   </si>
   <si>
-    <t>Tai A Rioroco</t>
-  </si>
-  <si>
     <t>Zoilo Hucke</t>
   </si>
   <si>
@@ -667,6 +646,39 @@
   </si>
   <si>
     <t>José Parancan</t>
+  </si>
+  <si>
+    <t>Gabriela Calderón</t>
+  </si>
+  <si>
+    <t>Rosa Reuque</t>
+  </si>
+  <si>
+    <t>Loenardo Castillo</t>
+  </si>
+  <si>
+    <t>Hilario Huirilef</t>
+  </si>
+  <si>
+    <t>Manuel Santander</t>
+  </si>
+  <si>
+    <t>Lincollan Manquelipe</t>
+  </si>
+  <si>
+    <t>Jaime Mariman</t>
+  </si>
+  <si>
+    <t>Karla Guaquin</t>
+  </si>
+  <si>
+    <t>Luis Pailapichun</t>
+  </si>
+  <si>
+    <t>Susana Rumian</t>
+  </si>
+  <si>
+    <t>Tai A Nure Riroroco</t>
   </si>
 </sst>
 </file>
@@ -710,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,6 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,16 +1014,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1039,16 +1052,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1059,16 +1072,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1079,16 +1092,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1099,16 +1112,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1119,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="D6" t="s">
-        <v>76</v>
+      <c r="D6" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1139,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="D7" t="s">
-        <v>77</v>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1159,16 +1172,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1179,16 +1192,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
+      <c r="D9" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1199,16 +1212,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D10" t="s">
-        <v>79</v>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1219,16 +1232,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D11" t="s">
-        <v>80</v>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1239,16 +1252,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1259,16 +1272,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="D13" t="s">
-        <v>82</v>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1279,16 +1292,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" t="s">
-        <v>83</v>
+      <c r="D14" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1299,16 +1312,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="D15" t="s">
-        <v>84</v>
+      <c r="D15" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1319,16 +1332,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
-      <c r="D16" t="s">
-        <v>85</v>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1339,16 +1352,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
-      <c r="D17" t="s">
-        <v>86</v>
+      <c r="D17" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1359,16 +1372,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1379,16 +1392,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="D19" t="s">
-        <v>88</v>
+      <c r="D19" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1399,16 +1412,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1419,16 +1432,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1439,16 +1452,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>89</v>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1459,16 +1472,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>90</v>
+      <c r="D23" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1479,16 +1492,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>91</v>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1499,16 +1512,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>92</v>
+      <c r="D25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1519,16 +1532,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>93</v>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1539,16 +1552,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>94</v>
+      <c r="D27" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1559,16 +1572,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1579,16 +1592,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>95</v>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1599,16 +1612,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>59</v>
+      <c r="D30" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1619,16 +1632,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>58</v>
+      <c r="D31" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1639,16 +1652,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>96</v>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1659,16 +1672,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>97</v>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1679,16 +1692,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>98</v>
+      <c r="D34" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1699,16 +1712,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>99</v>
+      <c r="D35" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1719,16 +1732,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>100</v>
+      <c r="D36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1739,16 +1752,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>101</v>
+      <c r="D37" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1759,13 +1772,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>198</v>
+      <c r="D38" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1779,13 +1792,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>199</v>
+      <c r="D39" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1799,13 +1812,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>39</v>
+      <c r="D40" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1819,13 +1832,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>200</v>
+      <c r="D41" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1836,7 +1849,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1844,8 +1857,8 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>124</v>
+      <c r="D42" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1856,7 +1869,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1864,8 +1877,8 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>125</v>
+      <c r="D43" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1876,7 +1889,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1884,8 +1897,8 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
-        <v>126</v>
+      <c r="D44" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1896,7 +1909,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1904,8 +1917,8 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>127</v>
+      <c r="D45" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1916,7 +1929,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1924,8 +1937,8 @@
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
-        <v>128</v>
+      <c r="D46" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1936,7 +1949,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1944,8 +1957,8 @@
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
-        <v>129</v>
+      <c r="D47" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1956,7 +1969,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1964,8 +1977,8 @@
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>130</v>
+      <c r="D48" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1976,7 +1989,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1984,8 +1997,8 @@
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>131</v>
+      <c r="D49" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1996,7 +2009,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -2004,8 +2017,8 @@
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>65</v>
+      <c r="D50" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -2016,7 +2029,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -2024,8 +2037,8 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>132</v>
+      <c r="D51" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -2036,7 +2049,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -2044,8 +2057,8 @@
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>66</v>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2056,7 +2069,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2064,8 +2077,8 @@
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
-        <v>133</v>
+      <c r="D53" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2076,7 +2089,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -2084,8 +2097,8 @@
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
-        <v>134</v>
+      <c r="D54" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -2096,7 +2109,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2104,8 +2117,8 @@
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
-        <v>135</v>
+      <c r="D55" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -2116,7 +2129,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2124,8 +2137,8 @@
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
-        <v>37</v>
+      <c r="D56" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2136,7 +2149,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2144,8 +2157,8 @@
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
-        <v>38</v>
+      <c r="D57" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2156,7 +2169,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2164,8 +2177,8 @@
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>102</v>
+      <c r="D58" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2176,7 +2189,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2184,8 +2197,8 @@
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>103</v>
+      <c r="D59" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2204,8 +2217,8 @@
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>201</v>
+      <c r="D60" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2224,8 +2237,8 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
-        <v>202</v>
+      <c r="D61" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -2244,8 +2257,8 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
-        <v>203</v>
+      <c r="D62" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -2264,8 +2277,8 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
-        <v>204</v>
+      <c r="D63" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2284,7 +2297,7 @@
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E64" t="s">
@@ -2304,7 +2317,7 @@
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
@@ -2316,7 +2329,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -2324,7 +2337,7 @@
       <c r="C66">
         <v>3</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E66" t="s">
@@ -2336,7 +2349,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -2344,8 +2357,8 @@
       <c r="C67">
         <v>3</v>
       </c>
-      <c r="D67" t="s">
-        <v>104</v>
+      <c r="D67" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
@@ -2356,7 +2369,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
@@ -2364,8 +2377,8 @@
       <c r="C68">
         <v>3</v>
       </c>
-      <c r="D68" t="s">
-        <v>105</v>
+      <c r="D68" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
@@ -2376,7 +2389,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
@@ -2384,8 +2397,8 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>106</v>
+      <c r="D69" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
@@ -2396,7 +2409,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
@@ -2404,8 +2417,8 @@
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70" t="s">
-        <v>107</v>
+      <c r="D70" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -2416,7 +2429,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
@@ -2424,8 +2437,8 @@
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="D71" t="s">
-        <v>108</v>
+      <c r="D71" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -2436,7 +2449,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
@@ -2444,8 +2457,8 @@
       <c r="C72">
         <v>3</v>
       </c>
-      <c r="D72" t="s">
-        <v>109</v>
+      <c r="D72" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -2456,7 +2469,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
@@ -2464,8 +2477,8 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" t="s">
-        <v>110</v>
+      <c r="D73" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -2476,7 +2489,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
@@ -2484,8 +2497,8 @@
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
-        <v>111</v>
+      <c r="D74" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
@@ -2496,7 +2509,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -2504,8 +2517,8 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
-        <v>112</v>
+      <c r="D75" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -2516,7 +2529,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
@@ -2524,8 +2537,8 @@
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
-        <v>113</v>
+      <c r="D76" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
@@ -2536,7 +2549,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
@@ -2544,8 +2557,8 @@
       <c r="C77">
         <v>3</v>
       </c>
-      <c r="D77" t="s">
-        <v>114</v>
+      <c r="D77" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -2556,7 +2569,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
@@ -2564,8 +2577,8 @@
       <c r="C78">
         <v>3</v>
       </c>
-      <c r="D78" t="s">
-        <v>115</v>
+      <c r="D78" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
@@ -2576,7 +2589,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
@@ -2584,8 +2597,8 @@
       <c r="C79">
         <v>3</v>
       </c>
-      <c r="D79" t="s">
-        <v>116</v>
+      <c r="D79" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
@@ -2596,7 +2609,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
@@ -2604,11 +2617,11 @@
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="D80" t="s">
-        <v>67</v>
+      <c r="D80" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2616,7 +2629,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -2624,11 +2637,11 @@
       <c r="C81">
         <v>3</v>
       </c>
-      <c r="D81" t="s">
-        <v>68</v>
+      <c r="D81" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2636,7 +2649,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
@@ -2644,11 +2657,11 @@
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" t="s">
-        <v>117</v>
+      <c r="D82" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2656,7 +2669,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -2664,11 +2677,11 @@
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" t="s">
-        <v>118</v>
+      <c r="D83" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2676,7 +2689,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
@@ -2684,11 +2697,11 @@
       <c r="C84">
         <v>3</v>
       </c>
-      <c r="D84" t="s">
-        <v>69</v>
+      <c r="D84" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2696,7 +2709,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -2704,11 +2717,11 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85" t="s">
-        <v>70</v>
+      <c r="D85" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2716,7 +2729,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -2724,11 +2737,11 @@
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" t="s">
-        <v>53</v>
+      <c r="D86" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2736,7 +2749,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
@@ -2744,11 +2757,11 @@
       <c r="C87">
         <v>3</v>
       </c>
-      <c r="D87" t="s">
-        <v>54</v>
+      <c r="D87" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2764,7 +2777,7 @@
       <c r="C88">
         <v>4</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
@@ -2784,7 +2797,7 @@
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
@@ -2804,14 +2817,14 @@
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" t="s">
-        <v>119</v>
+      <c r="D90" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2824,11 +2837,11 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
-        <v>120</v>
+      <c r="D91" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2844,7 +2857,7 @@
       <c r="C92">
         <v>5</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E92" t="s">
@@ -2864,8 +2877,8 @@
       <c r="C93">
         <v>5</v>
       </c>
-      <c r="D93" t="s">
-        <v>205</v>
+      <c r="D93" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
@@ -2884,8 +2897,8 @@
       <c r="C94">
         <v>5</v>
       </c>
-      <c r="D94" t="s">
-        <v>206</v>
+      <c r="D94" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="E94" t="s">
         <v>20</v>
@@ -2904,8 +2917,8 @@
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95" t="s">
-        <v>207</v>
+      <c r="D95" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E95" t="s">
         <v>20</v>
@@ -2924,8 +2937,8 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96" t="s">
-        <v>208</v>
+      <c r="D96" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="E96" t="s">
         <v>20</v>
@@ -2944,8 +2957,8 @@
       <c r="C97">
         <v>5</v>
       </c>
-      <c r="D97" t="s">
-        <v>209</v>
+      <c r="D97" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E97" t="s">
         <v>20</v>
@@ -2964,8 +2977,8 @@
       <c r="C98">
         <v>5</v>
       </c>
-      <c r="D98" t="s">
-        <v>210</v>
+      <c r="D98" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E98" t="s">
         <v>20</v>
@@ -2984,8 +2997,8 @@
       <c r="C99">
         <v>5</v>
       </c>
-      <c r="D99" t="s">
-        <v>211</v>
+      <c r="D99" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E99" t="s">
         <v>20</v>
@@ -3004,7 +3017,7 @@
       <c r="C100">
         <v>5.5</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E100" t="s">
@@ -3024,8 +3037,8 @@
       <c r="C101">
         <v>5.5</v>
       </c>
-      <c r="D101" t="s">
-        <v>24</v>
+      <c r="D101" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -3044,8 +3057,8 @@
       <c r="C102">
         <v>5.5</v>
       </c>
-      <c r="D102" t="s">
-        <v>25</v>
+      <c r="D102" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -3064,8 +3077,8 @@
       <c r="C103">
         <v>5.5</v>
       </c>
-      <c r="D103" t="s">
-        <v>136</v>
+      <c r="D103" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E103" t="s">
         <v>23</v>
@@ -3084,8 +3097,8 @@
       <c r="C104">
         <v>5.5</v>
       </c>
-      <c r="D104" t="s">
-        <v>137</v>
+      <c r="D104" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -3104,7 +3117,7 @@
       <c r="C105">
         <v>5.5</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E105" t="s">
@@ -3124,14 +3137,14 @@
       <c r="C106">
         <v>5.5</v>
       </c>
-      <c r="D106" t="s">
-        <v>139</v>
+      <c r="D106" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,14 +3157,14 @@
       <c r="C107">
         <v>5.5</v>
       </c>
-      <c r="D107" t="s">
-        <v>140</v>
+      <c r="D107" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E107" t="s">
         <v>23</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,14 +3177,14 @@
       <c r="C108">
         <v>5.5</v>
       </c>
-      <c r="D108" t="s">
-        <v>141</v>
+      <c r="D108" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,14 +3197,14 @@
       <c r="C109">
         <v>5.5</v>
       </c>
-      <c r="D109" t="s">
-        <v>142</v>
+      <c r="D109" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,13 +3212,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C110">
-        <v>5.5</v>
-      </c>
-      <c r="D110" t="s">
-        <v>143</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
@@ -3219,19 +3232,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C111">
         <v>8</v>
       </c>
-      <c r="D111" t="s">
-        <v>28</v>
+      <c r="D111" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E111" t="s">
         <v>23</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,19 +3252,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C112">
         <v>8</v>
       </c>
-      <c r="D112" t="s">
-        <v>29</v>
+      <c r="D112" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,19 +3272,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C113">
         <v>8</v>
       </c>
-      <c r="D113" t="s">
-        <v>30</v>
+      <c r="D113" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,13 +3292,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
-      <c r="D114" t="s">
-        <v>31</v>
+      <c r="D114" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
@@ -3299,12 +3312,12 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C115">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E115" t="s">
@@ -3319,13 +3332,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C116">
         <v>8</v>
       </c>
-      <c r="D116" t="s">
-        <v>145</v>
+      <c r="D116" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
@@ -3339,19 +3352,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C117">
         <v>8</v>
       </c>
-      <c r="D117" t="s">
-        <v>146</v>
+      <c r="D117" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,13 +3372,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C118">
         <v>8</v>
       </c>
-      <c r="D118" t="s">
-        <v>147</v>
+      <c r="D118" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
@@ -3379,19 +3392,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C119">
         <v>8</v>
       </c>
-      <c r="D119" t="s">
-        <v>148</v>
+      <c r="D119" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,13 +3412,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C120">
         <v>8</v>
       </c>
-      <c r="D120" t="s">
-        <v>149</v>
+      <c r="D120" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
@@ -3419,13 +3432,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C121">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>150</v>
+      <c r="D121" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
@@ -3439,19 +3452,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C122">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>151</v>
+        <v>9</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,19 +3472,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C123">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,19 +3492,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124">
         <v>9</v>
       </c>
-      <c r="D124" t="s">
-        <v>27</v>
+      <c r="D124" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,13 +3512,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C125">
         <v>9</v>
       </c>
-      <c r="D125" t="s">
-        <v>153</v>
+      <c r="D125" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
@@ -3519,13 +3532,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C126">
         <v>9</v>
       </c>
-      <c r="D126" t="s">
-        <v>44</v>
+      <c r="D126" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
@@ -3539,19 +3552,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127">
         <v>9</v>
       </c>
-      <c r="D127" t="s">
-        <v>154</v>
+      <c r="D127" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,19 +3572,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
-      <c r="D128" t="s">
-        <v>155</v>
+      <c r="D128" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,13 +3592,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C129">
         <v>9</v>
       </c>
-      <c r="D129" t="s">
-        <v>156</v>
+      <c r="D129" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
@@ -3599,19 +3612,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C130">
         <v>9</v>
       </c>
-      <c r="D130" t="s">
-        <v>157</v>
+      <c r="D130" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,19 +3632,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131">
         <v>9</v>
       </c>
-      <c r="D131" t="s">
-        <v>158</v>
+      <c r="D131" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,19 +3652,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C132">
         <v>9</v>
       </c>
-      <c r="D132" t="s">
-        <v>159</v>
+      <c r="D132" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,13 +3672,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C133">
         <v>9</v>
       </c>
-      <c r="D133" t="s">
-        <v>160</v>
+      <c r="D133" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
@@ -3679,13 +3692,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C134">
         <v>9</v>
       </c>
-      <c r="D134" t="s">
-        <v>161</v>
+      <c r="D134" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
@@ -3699,19 +3712,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135">
         <v>9</v>
       </c>
-      <c r="D135" t="s">
-        <v>162</v>
+      <c r="D135" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,13 +3732,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C136">
         <v>9</v>
       </c>
-      <c r="D136" t="s">
-        <v>163</v>
+      <c r="D136" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E136" t="s">
         <v>23</v>
@@ -3739,13 +3752,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C137">
         <v>9</v>
       </c>
-      <c r="D137" t="s">
-        <v>164</v>
+      <c r="D137" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
@@ -3759,12 +3772,12 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C138">
         <v>9</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E138" t="s">
@@ -3779,13 +3792,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
-      </c>
-      <c r="C139">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>166</v>
+        <v>30</v>
+      </c>
+      <c r="C139" s="3">
+        <v>9</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="E139" t="s">
         <v>23</v>
@@ -3799,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C140">
         <v>9</v>
       </c>
-      <c r="D140" t="s">
-        <v>167</v>
+      <c r="D140" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
@@ -3819,19 +3832,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C141">
         <v>9</v>
       </c>
-      <c r="D141" t="s">
-        <v>168</v>
+      <c r="D141" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,13 +3852,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C142">
         <v>9</v>
       </c>
-      <c r="D142" t="s">
-        <v>169</v>
+      <c r="D142" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E142" t="s">
         <v>23</v>
@@ -3859,19 +3872,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C143">
         <v>9</v>
       </c>
-      <c r="D143" t="s">
-        <v>170</v>
+      <c r="D143" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,19 +3892,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C144">
         <v>9</v>
       </c>
-      <c r="D144" t="s">
-        <v>171</v>
+      <c r="D144" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E144" t="s">
         <v>23</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,13 +3912,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C145">
         <v>9</v>
       </c>
-      <c r="D145" t="s">
-        <v>172</v>
+      <c r="D145" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E145" t="s">
         <v>23</v>
@@ -3919,19 +3932,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C146">
         <v>9</v>
       </c>
-      <c r="D146" t="s">
-        <v>173</v>
+      <c r="D146" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="E146" t="s">
         <v>23</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,19 +3952,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C147">
         <v>9</v>
       </c>
-      <c r="D147" t="s">
-        <v>174</v>
+      <c r="D147" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,19 +3972,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C148">
         <v>9</v>
       </c>
-      <c r="D148" t="s">
-        <v>175</v>
+      <c r="D148" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3979,13 +3992,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C149">
         <v>9</v>
       </c>
-      <c r="D149" t="s">
-        <v>176</v>
+      <c r="D149" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="E149" t="s">
         <v>23</v>
@@ -3999,13 +4012,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C150">
         <v>9</v>
       </c>
-      <c r="D150" t="s">
-        <v>45</v>
+      <c r="D150" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E150" t="s">
         <v>23</v>
@@ -4019,19 +4032,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151">
         <v>9</v>
       </c>
-      <c r="D151" t="s">
-        <v>177</v>
+      <c r="D151" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,19 +4052,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C152">
         <v>9</v>
       </c>
-      <c r="D152" t="s">
-        <v>178</v>
+      <c r="D152" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,13 +4072,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C153">
         <v>9</v>
       </c>
-      <c r="D153" t="s">
-        <v>179</v>
+      <c r="D153" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E153" t="s">
         <v>23</v>
@@ -4079,19 +4092,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
-      </c>
-      <c r="C154">
-        <v>9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="C154" s="3">
+        <v>9</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="E154" t="s">
         <v>23</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,19 +4112,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C155">
         <v>9</v>
       </c>
-      <c r="D155" t="s">
-        <v>181</v>
+      <c r="D155" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E155" t="s">
         <v>23</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,19 +4132,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C156">
         <v>9</v>
       </c>
-      <c r="D156" t="s">
-        <v>182</v>
+      <c r="D156" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E156" t="s">
         <v>23</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,13 +4152,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C157">
         <v>9</v>
       </c>
-      <c r="D157" t="s">
-        <v>183</v>
+      <c r="D157" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -4159,13 +4172,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C158" s="3">
         <v>9.5</v>
       </c>
-      <c r="D158" t="s">
-        <v>185</v>
+      <c r="D158" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -4179,13 +4192,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C159" s="3">
         <v>9.5</v>
       </c>
-      <c r="D159" t="s">
-        <v>41</v>
+      <c r="D159" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
@@ -4199,13 +4212,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C160" s="3">
         <v>9.5</v>
       </c>
-      <c r="D160" t="s">
-        <v>186</v>
+      <c r="D160" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
@@ -4219,13 +4232,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C161" s="3">
         <v>9.5</v>
       </c>
-      <c r="D161" t="s">
-        <v>40</v>
+      <c r="D161" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
@@ -4239,19 +4252,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C162" s="3">
         <v>10</v>
       </c>
-      <c r="D162" t="s">
-        <v>188</v>
+      <c r="D162" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,19 +4272,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C163" s="3">
         <v>10</v>
       </c>
-      <c r="D163" t="s">
-        <v>189</v>
+      <c r="D163" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,13 +4292,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C164" s="3">
         <v>10</v>
       </c>
-      <c r="D164" t="s">
-        <v>190</v>
+      <c r="D164" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -4299,13 +4312,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C165" s="3">
         <v>10</v>
       </c>
-      <c r="D165" t="s">
-        <v>191</v>
+      <c r="D165" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
@@ -4319,19 +4332,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C166" s="3">
         <v>10</v>
       </c>
-      <c r="D166" t="s">
-        <v>46</v>
+      <c r="D166" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,13 +4352,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C167" s="3">
         <v>10</v>
       </c>
-      <c r="D167" t="s">
-        <v>192</v>
+      <c r="D167" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="E167" t="s">
         <v>23</v>
@@ -4359,13 +4372,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C168" s="3">
         <v>10</v>
       </c>
-      <c r="D168" t="s">
-        <v>43</v>
+      <c r="D168" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E168" t="s">
         <v>23</v>
@@ -4379,13 +4392,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C169" s="3">
         <v>10</v>
       </c>
-      <c r="D169" t="s">
-        <v>42</v>
+      <c r="D169" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
@@ -4399,19 +4412,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C170" s="3">
         <v>10</v>
       </c>
-      <c r="D170" t="s">
-        <v>193</v>
+      <c r="D170" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,33 +4432,33 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C171" s="3">
         <v>10</v>
       </c>
-      <c r="D171" t="s">
-        <v>194</v>
+      <c r="D171" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" s="3">
+        <v>10</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B172" t="s">
-        <v>195</v>
-      </c>
-      <c r="C172" s="3">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s">
-        <v>196</v>
       </c>
       <c r="E172" t="s">
         <v>23</v>
@@ -4456,39 +4469,39 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C173" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="E173" t="s">
         <v>23</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>49</v>
+        <v>181</v>
+      </c>
+      <c r="C174" s="3">
+        <v>10</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4496,39 +4509,39 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
-      </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-      <c r="D175" t="s">
-        <v>50</v>
+        <v>181</v>
+      </c>
+      <c r="C175" s="3">
+        <v>10</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
-      </c>
-      <c r="C176">
-        <v>12</v>
-      </c>
-      <c r="D176" t="s">
-        <v>51</v>
+        <v>189</v>
+      </c>
+      <c r="C176" s="3">
+        <v>11</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4536,19 +4549,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C177">
-        <v>12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>71</v>
+        <v>189</v>
+      </c>
+      <c r="C177" s="3">
+        <v>11</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4556,19 +4569,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C178">
         <v>12</v>
       </c>
-      <c r="D178" t="s">
-        <v>72</v>
+      <c r="D178" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4576,62 +4589,62 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C179">
         <v>12</v>
       </c>
-      <c r="D179" t="s">
-        <v>121</v>
+      <c r="D179" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E179" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C180">
         <v>12</v>
       </c>
-      <c r="D180" t="s">
-        <v>122</v>
+      <c r="D180" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C181">
         <v>12</v>
       </c>
-      <c r="D181" t="s">
-        <v>123</v>
+      <c r="D181" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,36 +4652,36 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C182">
         <v>12</v>
       </c>
-      <c r="D182" t="s">
-        <v>48</v>
+      <c r="D182" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C183">
         <v>12</v>
       </c>
-      <c r="D183" t="s">
-        <v>212</v>
+      <c r="D183" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4676,48 +4689,128 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C184">
         <v>12</v>
       </c>
-      <c r="D184" t="s">
-        <v>34</v>
+      <c r="D184" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C185">
         <v>12</v>
       </c>
-      <c r="D185" t="s">
-        <v>36</v>
+      <c r="D185" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E186" t="s">
+        <v>44</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E187" t="s">
+        <v>44</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F185">
-    <sortCondition ref="C2:C185"/>
-    <sortCondition ref="E2:E185"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F192">
+    <sortCondition ref="C2:C192"/>
+    <sortCondition ref="E2:E192"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E418281-8A79-4F1A-A427-7704B773B09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDCD586-F1C8-4F8C-B726-E073E28238B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Francisca Linconao</t>
   </si>
   <si>
-    <t>María Olmos Loncopan</t>
-  </si>
-  <si>
     <t>Adolfo Millabur</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Eduardo Flores</t>
   </si>
   <si>
-    <t>José M. Troncoso</t>
-  </si>
-  <si>
     <t>Leslie Villca</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>Galvarino Reiman</t>
   </si>
   <si>
-    <t>María I. Porma</t>
-  </si>
-  <si>
     <t>Luis Catrileo</t>
   </si>
   <si>
@@ -676,6 +667,15 @@
   </si>
   <si>
     <t>opción_paritaria</t>
+  </si>
+  <si>
+    <t>José Troncoso</t>
+  </si>
+  <si>
+    <t>María Olmos</t>
+  </si>
+  <si>
+    <t>María Porma</t>
   </si>
 </sst>
 </file>
@@ -1014,12 +1014,13 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
@@ -1037,13 +1038,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1054,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1063,13 +1064,13 @@
         <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1086,13 +1087,13 @@
         <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -1109,13 +1110,13 @@
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -1132,13 +1133,13 @@
         <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1155,13 +1156,13 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1178,13 +1179,13 @@
         <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,7 +1193,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -1201,13 +1202,13 @@
         <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -1224,13 +1225,13 @@
         <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1247,13 +1248,13 @@
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1270,13 +1271,13 @@
         <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1293,13 +1294,13 @@
         <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1316,13 +1317,13 @@
         <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1339,13 +1340,13 @@
         <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1362,13 +1363,13 @@
         <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1385,13 +1386,13 @@
         <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,7 +1400,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1408,13 +1409,13 @@
         <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1431,13 +1432,13 @@
         <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1454,13 +1455,13 @@
         <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1477,10 +1478,10 @@
         <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -1491,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1500,10 +1501,10 @@
         <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -1523,10 +1524,10 @@
         <v>115</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1546,10 +1547,10 @@
         <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1569,10 +1570,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -1592,10 +1593,10 @@
         <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1615,10 +1616,10 @@
         <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1638,10 +1639,10 @@
         <v>110</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1661,10 +1662,10 @@
         <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1684,10 +1685,10 @@
         <v>116</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -1707,10 +1708,10 @@
         <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1730,10 +1731,10 @@
         <v>113</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -1753,10 +1754,10 @@
         <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
         <v>7</v>
@@ -1802,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -1822,10 +1823,10 @@
         <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -1845,10 +1846,10 @@
         <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -1868,10 +1869,10 @@
         <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -1891,10 +1892,10 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
@@ -1914,10 +1915,10 @@
         <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -1937,10 +1938,10 @@
         <v>111</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -1960,13 +1961,13 @@
         <v>110</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,13 +1984,13 @@
         <v>112</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2006,13 +2007,13 @@
         <v>111</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,13 +2030,13 @@
         <v>113</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,13 +2076,13 @@
         <v>114</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,7 +2102,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -2121,10 +2122,10 @@
         <v>112</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -2144,10 +2145,10 @@
         <v>111</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -2167,10 +2168,10 @@
         <v>113</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -2193,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
@@ -2216,7 +2217,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -2236,10 +2237,10 @@
         <v>110</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -2259,10 +2260,10 @@
         <v>113</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -2282,10 +2283,10 @@
         <v>112</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
@@ -2305,10 +2306,10 @@
         <v>118</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -2328,10 +2329,10 @@
         <v>116</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
@@ -2351,10 +2352,10 @@
         <v>119</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -2374,10 +2375,10 @@
         <v>120</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
@@ -2397,10 +2398,10 @@
         <v>115</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -2411,7 +2412,7 @@
         <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -2420,10 +2421,10 @@
         <v>137</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -2434,7 +2435,7 @@
         <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -2443,10 +2444,10 @@
         <v>129</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -2457,7 +2458,7 @@
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>9</v>
@@ -2466,10 +2467,10 @@
         <v>134</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -2480,7 +2481,7 @@
         <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -2492,7 +2493,7 @@
         <v>25</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -2503,7 +2504,7 @@
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2512,10 +2513,10 @@
         <v>136</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
@@ -2526,7 +2527,7 @@
         <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -2535,10 +2536,10 @@
         <v>135</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
@@ -2549,7 +2550,7 @@
         <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -2558,10 +2559,10 @@
         <v>130</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -2572,7 +2573,7 @@
         <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -2581,10 +2582,10 @@
         <v>132</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
@@ -2595,7 +2596,7 @@
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -2604,10 +2605,10 @@
         <v>123</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -2618,7 +2619,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -2627,10 +2628,10 @@
         <v>126</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G70" t="s">
         <v>22</v>
@@ -2641,7 +2642,7 @@
         <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -2650,10 +2651,10 @@
         <v>138</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
@@ -2664,7 +2665,7 @@
         <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -2673,10 +2674,10 @@
         <v>128</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
@@ -2687,7 +2688,7 @@
         <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2696,10 +2697,10 @@
         <v>133</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -2710,7 +2711,7 @@
         <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -2719,10 +2720,10 @@
         <v>124</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -2733,7 +2734,7 @@
         <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -2742,10 +2743,10 @@
         <v>122</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -2756,7 +2757,7 @@
         <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2765,10 +2766,10 @@
         <v>121</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -2779,7 +2780,7 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="3">
         <v>9</v>
@@ -2788,10 +2789,10 @@
         <v>131</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G77" t="s">
         <v>22</v>
@@ -2802,7 +2803,7 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -2811,10 +2812,10 @@
         <v>125</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -2825,7 +2826,7 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="3">
         <v>9.5</v>
@@ -2834,10 +2835,10 @@
         <v>139</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -2848,7 +2849,7 @@
         <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C80" s="3">
         <v>9.5</v>
@@ -2857,10 +2858,10 @@
         <v>140</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
         <v>22</v>
@@ -2871,7 +2872,7 @@
         <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -2880,10 +2881,10 @@
         <v>145</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -2894,7 +2895,7 @@
         <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C82" s="3">
         <v>10</v>
@@ -2903,10 +2904,10 @@
         <v>143</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>22</v>
@@ -2917,7 +2918,7 @@
         <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
@@ -2926,10 +2927,10 @@
         <v>142</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -2940,7 +2941,7 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -2949,10 +2950,10 @@
         <v>144</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
@@ -2963,7 +2964,7 @@
         <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
@@ -2972,10 +2973,10 @@
         <v>147</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
@@ -2986,7 +2987,7 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
@@ -2995,10 +2996,10 @@
         <v>141</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G86" t="s">
         <v>22</v>
@@ -3009,7 +3010,7 @@
         <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
@@ -3018,10 +3019,10 @@
         <v>146</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G87" t="s">
         <v>22</v>
@@ -3032,7 +3033,7 @@
         <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C88" s="3">
         <v>11</v>
@@ -3041,10 +3042,10 @@
         <v>148</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G88" t="s">
         <v>22</v>
@@ -3055,7 +3056,7 @@
         <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -3064,13 +3065,13 @@
         <v>113</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3078,7 +3079,7 @@
         <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -3087,13 +3088,13 @@
         <v>110</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3101,7 +3102,7 @@
         <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -3110,13 +3111,13 @@
         <v>114</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,7 +3125,7 @@
         <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3133,13 +3134,13 @@
         <v>112</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3147,7 +3148,7 @@
         <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -3156,13 +3157,13 @@
         <v>111</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,7 +3171,7 @@
         <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3179,13 +3180,13 @@
         <v>110</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
         <v>30</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDCD586-F1C8-4F8C-B726-E073E28238B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B671DC-D483-4352-9A2A-82569CFA0620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20430" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -213,9 +222,6 @@
     <t>Ximena Anza</t>
   </si>
   <si>
-    <t>Daniza Álvares</t>
-  </si>
-  <si>
     <t>Sergio Campusano</t>
   </si>
   <si>
@@ -552,9 +558,6 @@
     <t>Vanessa Huaiquimilla</t>
   </si>
   <si>
-    <t>Carmen Cafil</t>
-  </si>
-  <si>
     <t>Los Lagos</t>
   </si>
   <si>
@@ -609,9 +612,6 @@
     <t>Rodolfo Valdivia</t>
   </si>
   <si>
-    <t>Alejandro Tamaru</t>
-  </si>
-  <si>
     <t>Ema Tuki</t>
   </si>
   <si>
@@ -676,6 +676,27 @@
   </si>
   <si>
     <t>María Porma</t>
+  </si>
+  <si>
+    <t>Daniza Álvarez</t>
+  </si>
+  <si>
+    <t>Eliana Monardez</t>
+  </si>
+  <si>
+    <t>Hevaristo Monardez</t>
+  </si>
+  <si>
+    <t>Alejandro Huke</t>
+  </si>
+  <si>
+    <t>Natividad Llanquileo</t>
+  </si>
+  <si>
+    <t>Daniel Tobar</t>
+  </si>
+  <si>
+    <t>Carmen Caifil</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,13 +1059,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1067,7 +1088,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1075,7 +1096,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1087,10 +1108,10 @@
         <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -1098,7 +1119,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -1110,10 +1131,10 @@
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -1121,7 +1142,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -1136,7 +1157,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -1144,7 +1165,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -1156,10 +1177,10 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -1167,7 +1188,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -1179,10 +1200,10 @@
         <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -1190,7 +1211,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -1202,10 +1223,10 @@
         <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -1213,7 +1234,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -1225,10 +1246,10 @@
         <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
@@ -1236,7 +1257,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -1248,10 +1269,10 @@
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -1259,7 +1280,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -1282,7 +1303,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>55</v>
@@ -1294,10 +1315,10 @@
         <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1305,7 +1326,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>55</v>
@@ -1317,10 +1338,10 @@
         <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
@@ -1328,7 +1349,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>55</v>
@@ -1340,10 +1361,10 @@
         <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
@@ -1351,7 +1372,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -1366,7 +1387,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1374,7 +1395,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>55</v>
@@ -1397,7 +1418,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>
@@ -1409,10 +1430,10 @@
         <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -1420,7 +1441,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>55</v>
@@ -1432,10 +1453,10 @@
         <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
@@ -1443,7 +1464,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -1455,10 +1476,10 @@
         <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
@@ -1466,7 +1487,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -1478,10 +1499,10 @@
         <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -1489,7 +1510,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -1504,7 +1525,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -1512,7 +1533,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1524,10 +1545,10 @@
         <v>115</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1535,7 +1556,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1547,10 +1568,10 @@
         <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1558,7 +1579,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1570,10 +1591,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -1581,7 +1602,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1593,10 +1614,10 @@
         <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1604,7 +1625,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1619,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -1627,7 +1648,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1642,7 +1663,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -1650,7 +1671,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1662,10 +1683,10 @@
         <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -1673,7 +1694,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1696,7 +1717,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1708,10 +1729,10 @@
         <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1719,7 +1740,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1731,10 +1752,10 @@
         <v>113</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -1742,7 +1763,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1754,10 +1775,10 @@
         <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
         <v>7</v>
@@ -1765,7 +1786,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1788,7 +1809,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1803,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
@@ -1811,7 +1832,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1823,10 +1844,10 @@
         <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
@@ -1834,7 +1855,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1846,10 +1867,10 @@
         <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -1857,7 +1878,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1869,10 +1890,10 @@
         <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -1880,7 +1901,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1892,10 +1913,10 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
@@ -1903,7 +1924,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1915,10 +1936,10 @@
         <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -1926,7 +1947,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1938,10 +1959,10 @@
         <v>111</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -1949,7 +1970,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1958,21 +1979,21 @@
         <v>3</v>
       </c>
       <c r="D41" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1981,13 +2002,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1995,7 +2016,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2004,13 +2025,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -2018,7 +2039,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2027,13 +2048,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -2041,30 +2062,30 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2073,44 +2094,44 @@
         <v>4</v>
       </c>
       <c r="D46" s="3">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -2119,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -2133,7 +2154,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -2142,13 +2163,13 @@
         <v>5</v>
       </c>
       <c r="D49" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -2156,7 +2177,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -2165,13 +2186,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -2179,30 +2200,30 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -2211,13 +2232,13 @@
         <v>5.5</v>
       </c>
       <c r="D52" s="3">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -2225,7 +2246,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -2234,13 +2255,13 @@
         <v>5.5</v>
       </c>
       <c r="D53" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
         <v>22</v>
@@ -2248,7 +2269,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -2257,13 +2278,13 @@
         <v>5.5</v>
       </c>
       <c r="D54" s="3">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
         <v>22</v>
@@ -2271,7 +2292,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -2280,13 +2301,13 @@
         <v>5.5</v>
       </c>
       <c r="D55" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G55" t="s">
         <v>22</v>
@@ -2294,22 +2315,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="D56" s="3">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" t="s">
         <v>22</v>
@@ -2317,7 +2338,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -2326,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
         <v>22</v>
@@ -2340,7 +2361,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -2349,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="D58" s="3">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -2363,7 +2384,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -2372,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
         <v>22</v>
@@ -2386,7 +2407,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -2395,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="D60" s="3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -2409,22 +2430,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="3">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
         <v>22</v>
@@ -2432,30 +2453,30 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -2464,13 +2485,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
@@ -2478,7 +2499,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -2487,13 +2508,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
         <v>22</v>
@@ -2501,7 +2522,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -2510,13 +2531,13 @@
         <v>9</v>
       </c>
       <c r="D65" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="G65" t="s">
         <v>22</v>
@@ -2524,7 +2545,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -2533,13 +2554,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="3">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
         <v>22</v>
@@ -2547,7 +2568,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
@@ -2556,13 +2577,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="3">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="G67" t="s">
         <v>22</v>
@@ -2570,7 +2591,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -2579,13 +2600,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G68" t="s">
         <v>22</v>
@@ -2593,7 +2614,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -2602,13 +2623,13 @@
         <v>9</v>
       </c>
       <c r="D69" s="3">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G69" t="s">
         <v>22</v>
@@ -2616,7 +2637,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
@@ -2625,13 +2646,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="3">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G70" t="s">
         <v>22</v>
@@ -2639,7 +2660,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>27</v>
@@ -2648,13 +2669,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="3">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
         <v>22</v>
@@ -2662,7 +2683,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -2671,13 +2692,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="3">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
         <v>22</v>
@@ -2685,7 +2706,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -2694,13 +2715,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="3">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -2708,7 +2729,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2717,13 +2738,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="3">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G74" t="s">
         <v>22</v>
@@ -2731,7 +2752,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -2740,13 +2761,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="3">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -2754,7 +2775,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -2763,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -2777,22 +2798,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>9</v>
       </c>
       <c r="D77" s="3">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="G77" t="s">
         <v>22</v>
@@ -2800,7 +2821,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
@@ -2809,13 +2830,13 @@
         <v>9</v>
       </c>
       <c r="D78" s="3">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -2823,22 +2844,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C79" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D79" s="3">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="G79" t="s">
         <v>22</v>
@@ -2846,22 +2867,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="3">
-        <v>9.5</v>
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>22</v>
@@ -2869,22 +2890,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C81" s="3">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D81" s="3">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -2892,22 +2913,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C82" s="3">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D82" s="3">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="G82" t="s">
         <v>22</v>
@@ -2915,22 +2936,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
       </c>
       <c r="D83" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G83" t="s">
         <v>22</v>
@@ -2938,22 +2959,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
       </c>
       <c r="D84" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
         <v>22</v>
@@ -2961,22 +2982,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
       </c>
       <c r="D85" s="3">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="G85" t="s">
         <v>22</v>
@@ -2984,22 +3005,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
       </c>
       <c r="D86" s="3">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>22</v>
@@ -3007,22 +3028,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
       </c>
       <c r="D87" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
         <v>22</v>
@@ -3030,22 +3051,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C88" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="3">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G88" t="s">
         <v>22</v>
@@ -3053,53 +3074,53 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="3">
+        <v>10</v>
+      </c>
+      <c r="D89" s="3">
+        <v>146</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89">
-        <v>12</v>
-      </c>
-      <c r="D89" s="3">
-        <v>113</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="C90" s="3">
+        <v>11</v>
       </c>
       <c r="D90" s="3">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -3108,13 +3129,13 @@
         <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -3122,7 +3143,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>28</v>
@@ -3131,13 +3152,13 @@
         <v>12</v>
       </c>
       <c r="D92" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -3145,7 +3166,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
@@ -3154,13 +3175,13 @@
         <v>12</v>
       </c>
       <c r="D93" s="3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -3168,7 +3189,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
@@ -3177,22 +3198,68 @@
         <v>12</v>
       </c>
       <c r="D94" s="3">
+        <v>112</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3">
+        <v>111</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96" s="3">
         <v>110</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G96" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G107">
-    <sortCondition ref="G2:G107"/>
-    <sortCondition ref="C2:C107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G99">
+    <sortCondition ref="C2:C99"/>
+    <sortCondition ref="G2:G99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B671DC-D483-4352-9A2A-82569CFA0620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5423C88-2105-40E6-A0C4-B0A25173B6B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20430" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20475" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>region2</t>
   </si>
   <si>
-    <t>nombre</t>
-  </si>
-  <si>
     <t>ppoo</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>Eliana Monardez</t>
   </si>
   <si>
-    <t>Hevaristo Monardez</t>
-  </si>
-  <si>
     <t>Alejandro Huke</t>
   </si>
   <si>
@@ -697,6 +691,39 @@
   </si>
   <si>
     <t>Carmen Caifil</t>
+  </si>
+  <si>
+    <t>Heriberto Monardez</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>partido_p</t>
+  </si>
+  <si>
+    <t>partido_t</t>
+  </si>
+  <si>
+    <t>nombre_titular</t>
+  </si>
+  <si>
+    <t>EVO</t>
+  </si>
+  <si>
+    <t>UDI</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,11 +1071,11 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,24 +1086,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1085,21 +1119,21 @@
         <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1108,21 +1142,21 @@
         <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -1131,21 +1165,21 @@
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -1154,21 +1188,24 @@
         <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1177,21 +1214,21 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1200,21 +1237,21 @@
         <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -1223,21 +1260,21 @@
         <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -1246,21 +1283,21 @@
         <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1269,21 +1306,21 @@
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1292,21 +1329,21 @@
         <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1315,21 +1352,21 @@
         <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1338,21 +1375,21 @@
         <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1361,21 +1398,21 @@
         <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1384,21 +1421,21 @@
         <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1407,21 +1444,21 @@
         <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1430,21 +1467,21 @@
         <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1453,21 +1490,21 @@
         <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1476,21 +1513,21 @@
         <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1499,21 +1536,21 @@
         <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1522,21 +1559,21 @@
         <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1545,21 +1582,21 @@
         <v>115</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1568,21 +1605,21 @@
         <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1591,21 +1628,21 @@
         <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1614,21 +1651,21 @@
         <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1637,21 +1674,21 @@
         <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1660,21 +1697,21 @@
         <v>110</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1683,21 +1720,24 @@
         <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1706,21 +1746,21 @@
         <v>116</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1729,21 +1769,21 @@
         <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1752,21 +1792,24 @@
         <v>113</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1775,21 +1818,21 @@
         <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1798,21 +1841,21 @@
         <v>111</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1821,21 +1864,21 @@
         <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1844,21 +1887,21 @@
         <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1867,21 +1910,21 @@
         <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1890,21 +1933,21 @@
         <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1913,21 +1956,21 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1936,21 +1979,21 @@
         <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1959,21 +2002,21 @@
         <v>111</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1982,21 +2025,24 @@
         <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2005,21 +2051,21 @@
         <v>110</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2028,21 +2074,21 @@
         <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2051,21 +2097,21 @@
         <v>111</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2074,21 +2120,21 @@
         <v>113</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2097,21 +2143,21 @@
         <v>112</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2120,21 +2166,21 @@
         <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2143,21 +2189,21 @@
         <v>110</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2166,21 +2212,21 @@
         <v>112</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2189,21 +2235,21 @@
         <v>111</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2212,21 +2258,21 @@
         <v>113</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -2235,21 +2281,21 @@
         <v>111</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -2258,21 +2304,21 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -2281,21 +2327,21 @@
         <v>110</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -2304,21 +2350,24 @@
         <v>113</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -2327,21 +2376,21 @@
         <v>112</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -2350,21 +2399,21 @@
         <v>118</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2373,21 +2422,21 @@
         <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -2396,21 +2445,21 @@
         <v>119</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -2419,21 +2468,24 @@
         <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2442,21 +2494,21 @@
         <v>115</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -2465,21 +2517,21 @@
         <v>117</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>9</v>
@@ -2488,21 +2540,21 @@
         <v>137</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -2511,21 +2563,21 @@
         <v>129</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2534,21 +2586,24 @@
         <v>134</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -2557,21 +2612,21 @@
         <v>127</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -2580,21 +2635,21 @@
         <v>136</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -2603,21 +2658,21 @@
         <v>135</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -2626,21 +2681,24 @@
         <v>130</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -2649,21 +2707,21 @@
         <v>132</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -2672,21 +2730,21 @@
         <v>123</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -2695,21 +2753,24 @@
         <v>126</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2718,21 +2779,21 @@
         <v>138</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -2741,21 +2802,21 @@
         <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -2764,21 +2825,24 @@
         <v>133</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2787,21 +2851,21 @@
         <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -2810,21 +2874,27 @@
         <v>122</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -2833,21 +2903,21 @@
         <v>121</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="3">
         <v>9</v>
@@ -2856,21 +2926,21 @@
         <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -2879,21 +2949,21 @@
         <v>125</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="3">
         <v>9.5</v>
@@ -2902,21 +2972,21 @@
         <v>139</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82" s="3">
         <v>9.5</v>
@@ -2925,21 +2995,21 @@
         <v>140</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
@@ -2948,21 +3018,21 @@
         <v>145</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -2971,21 +3041,21 @@
         <v>143</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
@@ -2994,21 +3064,24 @@
         <v>142</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
@@ -3017,21 +3090,21 @@
         <v>144</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
@@ -3040,21 +3113,21 @@
         <v>147</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3">
         <v>10</v>
@@ -3063,21 +3136,24 @@
         <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" s="3">
         <v>10</v>
@@ -3086,21 +3162,24 @@
         <v>146</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="3">
         <v>11</v>
@@ -3109,21 +3188,21 @@
         <v>148</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -3132,21 +3211,21 @@
         <v>113</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3155,21 +3234,21 @@
         <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -3178,21 +3257,21 @@
         <v>114</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3201,21 +3280,21 @@
         <v>112</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -3224,21 +3303,21 @@
         <v>111</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -3247,19 +3326,19 @@
         <v>110</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G99">
-    <sortCondition ref="C2:C99"/>
-    <sortCondition ref="G2:G99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J97">
+    <sortCondition ref="C2:C97"/>
+    <sortCondition ref="I2:I97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/constituyentes 2021/PPOO.xlsx
+++ b/constituyentes 2021/PPOO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\constituyentes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5423C88-2105-40E6-A0C4-B0A25173B6B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C08F30-671E-4BBC-99DA-E99FDB160D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20475" yWindow="585" windowWidth="15375" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$C$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Brenda Gutierrez</t>
   </si>
   <si>
-    <t>Changos</t>
-  </si>
-  <si>
     <t>Marta Rodríguez</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Carmen Jaramillo</t>
   </si>
   <si>
-    <t>Kawésqar</t>
-  </si>
-  <si>
     <t>Michael Vargas</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Felipe Retamal</t>
   </si>
   <si>
-    <t>Aymara</t>
-  </si>
-  <si>
     <t>Laureano Supanta</t>
   </si>
   <si>
@@ -696,34 +687,16 @@
     <t>Heriberto Monardez</t>
   </si>
   <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>partido_p</t>
-  </si>
-  <si>
-    <t>partido_t</t>
-  </si>
-  <si>
     <t>nombre_titular</t>
   </si>
   <si>
-    <t>EVO</t>
-  </si>
-  <si>
-    <t>UDI</t>
-  </si>
-  <si>
-    <t>PPD</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>DC</t>
+    <t>Aimara</t>
+  </si>
+  <si>
+    <t>Chango</t>
+  </si>
+  <si>
+    <t>Kawashkar</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,11 +1044,11 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,31 +1059,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1119,21 +1086,21 @@
         <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1142,21 +1109,21 @@
         <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -1165,21 +1132,21 @@
         <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -1188,24 +1155,21 @@
         <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1214,21 +1178,21 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1237,21 +1201,21 @@
         <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -1260,21 +1224,21 @@
         <v>117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -1283,21 +1247,21 @@
         <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1306,21 +1270,21 @@
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1329,21 +1293,21 @@
         <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1352,21 +1316,21 @@
         <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -1375,21 +1339,21 @@
         <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1398,21 +1362,21 @@
         <v>125</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1421,21 +1385,21 @@
         <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1444,21 +1408,21 @@
         <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1467,21 +1431,21 @@
         <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1490,21 +1454,21 @@
         <v>122</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1513,21 +1477,21 @@
         <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1536,21 +1500,21 @@
         <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1559,16 +1523,16 @@
         <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1582,16 +1546,16 @@
         <v>115</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1605,16 +1569,16 @@
         <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1628,16 +1592,16 @@
         <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1651,16 +1615,16 @@
         <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1674,16 +1638,16 @@
         <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1697,16 +1661,16 @@
         <v>110</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1720,19 +1684,16 @@
         <v>113</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1746,16 +1707,16 @@
         <v>116</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="G29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1769,16 +1730,16 @@
         <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1792,19 +1753,16 @@
         <v>113</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1818,16 +1776,16 @@
         <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1841,16 +1799,16 @@
         <v>111</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1864,16 +1822,16 @@
         <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1887,16 +1845,16 @@
         <v>114</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1910,16 +1868,16 @@
         <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1933,16 +1891,16 @@
         <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1956,16 +1914,16 @@
         <v>117</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1979,16 +1937,16 @@
         <v>113</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2002,16 +1960,16 @@
         <v>111</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2025,19 +1983,16 @@
         <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2051,16 +2006,16 @@
         <v>110</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2074,16 +2029,16 @@
         <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2097,16 +2052,16 @@
         <v>111</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2120,21 +2075,21 @@
         <v>113</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2143,21 +2098,21 @@
         <v>112</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2166,21 +2121,21 @@
         <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2189,21 +2144,21 @@
         <v>110</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2212,21 +2167,21 @@
         <v>112</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2235,21 +2190,21 @@
         <v>111</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2258,21 +2213,21 @@
         <v>113</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>5.5</v>
@@ -2281,21 +2236,21 @@
         <v>111</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>5.5</v>
@@ -2304,21 +2259,21 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>5.5</v>
@@ -2327,21 +2282,21 @@
         <v>110</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>5.5</v>
@@ -2350,24 +2305,21 @@
         <v>113</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>5.5</v>
@@ -2376,21 +2328,21 @@
         <v>112</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -2399,21 +2351,21 @@
         <v>118</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2422,21 +2374,21 @@
         <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -2445,21 +2397,21 @@
         <v>119</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -2468,24 +2420,21 @@
         <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2494,21 +2443,21 @@
         <v>115</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -2517,21 +2466,21 @@
         <v>117</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>9</v>
@@ -2540,21 +2489,21 @@
         <v>137</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -2563,21 +2512,21 @@
         <v>129</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2586,24 +2535,21 @@
         <v>134</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -2612,21 +2558,21 @@
         <v>127</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -2635,21 +2581,21 @@
         <v>136</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -2658,21 +2604,21 @@
         <v>135</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -2681,24 +2627,21 @@
         <v>130</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -2707,21 +2650,21 @@
         <v>132</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -2730,21 +2673,21 @@
         <v>123</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -2753,24 +2696,21 @@
         <v>126</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2779,21 +2719,21 @@
         <v>138</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -2802,21 +2742,21 @@
         <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -2825,24 +2765,21 @@
         <v>133</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2851,21 +2788,21 @@
         <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -2874,27 +2811,21 @@
         <v>122</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -2903,21 +2834,21 @@
         <v>121</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" s="3">
         <v>9</v>
@@ -2926,21 +2857,21 @@
         <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -2949,21 +2880,21 @@
         <v>125</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3">
         <v>9.5</v>
@@ -2972,21 +2903,21 @@
         <v>139</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C82" s="3">
         <v>9.5</v>
@@ -2995,21 +2926,21 @@
         <v>140</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C83" s="3">
         <v>10</v>
@@ -3018,21 +2949,21 @@
         <v>145</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -3041,21 +2972,21 @@
         <v>143</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" s="3">
         <v>10</v>
@@ -3064,24 +2995,21 @@
         <v>142</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C86" s="3">
         <v>10</v>
@@ -3090,21 +3018,21 @@
         <v>144</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
@@ -3113,21 +3041,21 @@
         <v>147</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="3">
         <v>10</v>
@@ -3136,24 +3064,21 @@
         <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C89" s="3">
         <v>10</v>
@@ -3162,24 +3087,21 @@
         <v>146</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C90" s="3">
         <v>11</v>
@@ -3188,21 +3110,21 @@
         <v>148</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -3211,21 +3133,21 @@
         <v>113</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I91" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3234,21 +3156,21 @@
         <v>110</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -3257,21 +3179,21 @@
         <v>114</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I93" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3280,21 +3202,21 @@
         <v>112</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I94" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -3303,21 +3225,21 @@
         <v>111</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -3326,19 +3248,19 @@
         <v>110</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I96" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J97">
-    <sortCondition ref="C2:C97"/>
-    <sortCondition ref="I2:I97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:G96">
+    <sortCondition ref="C2:C96"/>
+    <sortCondition ref="G2:G96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
